--- a/pred_ohlcv/54_21/2019-10-19 OMG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-19 OMG ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-2972.567500000001</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-1044.567500000001</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-1899.019100000001</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-1856.819100000001</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-4291.990984699454</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-4291.990984699454</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-4328.090984699455</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-3974.087857960324</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-4123.971957960324</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-4121.543542659778</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-12156.49444265978</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-12185.12094265978</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-12185.12094265978</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-12473.93734265978</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-12473.93734265978</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-12436.46064265978</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-2410.064642659776</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-12703.46654265978</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-12703.46654265978</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-8502.314342659774</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-18877.41224265977</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-20424.60744265977</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-15953.34264265977</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-15951.34264265977</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-16053.80764265977</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-16053.80764265977</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-16060.49084265977</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-16078.43364265977</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-19 OMG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-19 OMG ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-2972.567500000001</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-1044.567500000001</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-1899.019100000001</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-1856.819100000001</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-1934.733600000001</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-4291.990984699454</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-4291.990984699454</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-4328.090984699455</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-3974.087857960324</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-4123.971957960324</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-4121.543542659778</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-12156.49444265978</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-12185.12094265978</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-12185.12094265978</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-12473.93734265978</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-12473.93734265978</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-12436.46064265978</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-2410.064642659776</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-12703.46654265978</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-12703.46654265978</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-8502.314342659774</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-18877.41224265977</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-20424.60744265977</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-20424.60744265977</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-20273.66904265977</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-15892.24264265977</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-15892.24264265977</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-15892.24264265977</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-15953.34264265977</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-15951.34264265977</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-16053.80764265977</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-16053.80764265977</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-16052.80764265977</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-16060.49084265977</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-16055.65924265977</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-16078.43364265977</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-16078.43364265977</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-16078.43364265977</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-16078.43364265977</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-16326.15694265977</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-16293.20574265977</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-16312.71024265977</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-16312.71024265977</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
